--- a/biology/Biochimie/Bactériorubérine/Bactériorubérine.xlsx
+++ b/biology/Biochimie/Bactériorubérine/Bactériorubérine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bact%C3%A9riorub%C3%A9rine</t>
+          <t>Bactériorubérine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La bactériorubérine est un terpénoïde tétra-hydroxylé à 50 atomes de carbone. Il s'agit d'un pigment biologique de couleur pourpre qui, avec la bactériorhodopsine, confère aux archées halophiles telles qu’Halobacterium salinarum leur couleur caractéristique. Elle agit comme antioxydant afin de protéger l'ADN des dommages causés par les dérivés réactifs de l'oxygène[2].
+La bactériorubérine est un terpénoïde tétra-hydroxylé à 50 atomes de carbone. Il s'agit d'un pigment biologique de couleur pourpre qui, avec la bactériorhodopsine, confère aux archées halophiles telles qu’Halobacterium salinarum leur couleur caractéristique. Elle agit comme antioxydant afin de protéger l'ADN des dommages causés par les dérivés réactifs de l'oxygène.
 </t>
         </is>
       </c>
